--- a/2-code/emeScheme_0.9.5_temperature_choice.xlsx
+++ b/2-code/emeScheme_0.9.5_temperature_choice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessaweberdemelo/Documents/GitHub/Temperature_response_Tetrahymena/2-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F8894-AC85-D349-9230-B25182966788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38EB2D-D321-8441-87EB-D45F3B5B11D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="560" windowWidth="35960" windowHeight="23000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="1360" windowWidth="35960" windowHeight="23000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTATION" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="167">
   <si>
     <t>emeScheme Definition and Entering Form</t>
   </si>
@@ -1673,7 +1673,10 @@
     <t>particle</t>
   </si>
   <si>
-    <t>count</t>
+    <t>tet</t>
+  </si>
+  <si>
+    <t>cells/ml</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3473,7 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3773,7 +3776,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="135" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3906,7 +3909,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>67</v>
@@ -6050,7 +6053,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6239,7 +6242,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>164</v>
@@ -7749,7 +7752,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8872,7 +8875,7 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
